--- a/r4-core-13-rebase/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-13-rebase/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:29:57+00:00</t>
+    <t>2021-12-16T14:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-13-rebase/ValueSet-at-elga-vs-countryCodes.xlsx
+++ b/r4-core-13-rebase/ValueSet-at-elga-vs-countryCodes.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: ?ngen-9? (OFFICIAL)</t>
+    <t>id: urn:oid:1.2.40.0.34.10.172 (OFFICIAL)</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T14:42:22+00:00</t>
+    <t>2021-12-16T14:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
